--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Projects\Java\ultimate-spring-boot-exam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BECC2A8-C67C-4B18-B3CC-4B9B44586E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364CB9-E453-4DB2-89DE-88C290451811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="3030" windowWidth="28800" windowHeight="11295" xr2:uid="{DD256250-6F2E-461F-A121-D4E0D938D1E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DD256250-6F2E-461F-A121-D4E0D938D1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="2159">
   <si>
     <t>Question Text</t>
   </si>
@@ -4915,9 +4915,6 @@
   </si>
   <si>
     <t>One configuration class can't have two @Bean annotated methods returning the same type</t>
-  </si>
-  <si>
-    <t>@Configuration is not a valid annotation, we must use @ApplicationContext</t>
   </si>
   <si>
     <t>Option a is the correct answer. As seen on line 7, the createPerson() method is private. When using a @Configuration class in "full" mode, Spring creates a CGLIB proxy of the class to manage inter-bean dependencies. CGLIB cannot subclass a class and override its private methods. Therefore, @Bean methods must be overridable, meaning they cannot be private. Option b is incorrect. @Bean is a method-level annotation used to declare a bean. Option c is incorrect. A configuration class can have multiple @Bean methods returning the same type, as long as the bean names (which default to the method names) are different. Here, the beans would be named createPerson and createPerson2. Option d is incorrect. @Configuration is the primary annotation for declaring a Java-based configuration class. @ApplicationContext is an interface representing the Spring container, not an annotation for this purpose.</t>
@@ -6937,10 +6934,13 @@
   <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J361"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -14658,8 +14658,9 @@
       <c r="D279" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>1627</v>
+      <c r="E279" s="2" t="e">
+        <f>B303 is not a valid annotation, we must use ApplicationContext</f>
+        <v>#NAME?</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -14667,7 +14668,7 @@
         <v>58</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="J279" t="s">
         <v>32</v>
@@ -14675,19 +14676,19 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="D280" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="E280" s="2" t="s">
         <v>1632</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>1633</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -14695,7 +14696,7 @@
         <v>111</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="J280" t="s">
         <v>32</v>
@@ -14703,19 +14704,19 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="D281" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="E281" s="2" t="s">
         <v>1638</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>1639</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -14723,7 +14724,7 @@
         <v>675</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J281" t="s">
         <v>66</v>
@@ -14731,19 +14732,19 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="C282" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="D282" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="E282" s="2" t="s">
         <v>1644</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>1645</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -14751,7 +14752,7 @@
         <v>30</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J282" t="s">
         <v>17</v>
@@ -14759,19 +14760,19 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>1595</v>
       </c>
       <c r="C283" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="E283" s="2" t="s">
         <v>1649</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>1650</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -14779,7 +14780,7 @@
         <v>118</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J283" t="s">
         <v>32</v>
@@ -14787,7 +14788,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B284" s="4" t="b">
         <v>1</v>
@@ -14803,7 +14804,7 @@
         <v>58</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J284" t="s">
         <v>17</v>
@@ -14811,19 +14812,19 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="C285" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="D285" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="E285" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>1658</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -14831,7 +14832,7 @@
         <v>111</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J285" t="s">
         <v>32</v>
@@ -14839,10 +14840,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>1661</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>809</v>
@@ -14851,7 +14852,7 @@
         <v>694</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -14859,7 +14860,7 @@
         <v>688</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J286" t="s">
         <v>66</v>
@@ -14867,29 +14868,29 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="D287" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="E287" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="F287" s="2" t="s">
         <v>1668</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>1669</v>
       </c>
       <c r="G287" s="2"/>
       <c r="H287" s="2" t="s">
         <v>111</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="J287" t="s">
         <v>17</v>
@@ -14897,19 +14898,19 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="D288" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="E288" s="2" t="s">
         <v>1674</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>1675</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -14917,7 +14918,7 @@
         <v>15</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J288" t="s">
         <v>32</v>
@@ -14925,19 +14926,19 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="C289" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="D289" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="E289" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>1681</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -14945,7 +14946,7 @@
         <v>51</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J289" t="s">
         <v>32</v>
@@ -14953,16 +14954,16 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="D290" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>1686</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>1356</v>
@@ -14973,7 +14974,7 @@
         <v>51</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J290" t="s">
         <v>66</v>
@@ -14981,13 +14982,13 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>136</v>
@@ -15001,7 +15002,7 @@
         <v>583</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="J291" t="s">
         <v>17</v>
@@ -15009,19 +15010,19 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="E292" s="2" t="s">
         <v>1694</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>1695</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -15029,7 +15030,7 @@
         <v>118</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J292" t="s">
         <v>32</v>
@@ -15037,19 +15038,19 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="E293" s="2" t="s">
         <v>1700</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>1701</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -15057,7 +15058,7 @@
         <v>465</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J293" t="s">
         <v>17</v>
@@ -15065,7 +15066,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>498</v>
@@ -15087,7 +15088,7 @@
         <v>675</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J294" t="s">
         <v>32</v>
@@ -15095,7 +15096,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B295" s="4" t="b">
         <v>0</v>
@@ -15111,7 +15112,7 @@
         <v>58</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J295" t="s">
         <v>32</v>
@@ -15119,7 +15120,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B296" s="4" t="b">
         <v>0</v>
@@ -15135,7 +15136,7 @@
         <v>51</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J296" t="s">
         <v>66</v>
@@ -15143,7 +15144,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>809</v>
@@ -15152,7 +15153,7 @@
         <v>1095</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>1510</v>
@@ -15163,7 +15164,7 @@
         <v>111</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J297" t="s">
         <v>17</v>
@@ -15171,29 +15172,29 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="D298" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="E298" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="F298" s="2" t="s">
         <v>1716</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>1717</v>
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="J298" t="s">
         <v>32</v>
@@ -15201,7 +15202,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>982</v>
@@ -15220,10 +15221,10 @@
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I299" s="2" t="s">
         <v>1720</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>1721</v>
       </c>
       <c r="J299" t="s">
         <v>17</v>
@@ -15231,19 +15232,19 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="C300" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="D300" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="E300" s="2" t="s">
         <v>1725</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>1726</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -15251,7 +15252,7 @@
         <v>583</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J300" t="s">
         <v>32</v>
@@ -15259,19 +15260,19 @@
     </row>
     <row r="301" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="D301" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="E301" s="2" t="s">
         <v>1731</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>1732</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -15279,7 +15280,7 @@
         <v>583</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J301" t="s">
         <v>32</v>
@@ -15287,1772 +15288,1772 @@
     </row>
     <row r="302" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B302" s="7" t="s">
         <v>1734</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="C302" s="7" t="s">
         <v>1735</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="D302" s="7" t="s">
         <v>1736</v>
       </c>
-      <c r="D302" s="7" t="s">
+      <c r="E302" s="8" t="s">
         <v>1737</v>
-      </c>
-      <c r="E302" s="8" t="s">
-        <v>1738</v>
       </c>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
       <c r="H302" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I302" s="8" t="s">
         <v>1739</v>
       </c>
-      <c r="I302" s="8" t="s">
+      <c r="J302" s="9" t="s">
         <v>1740</v>
-      </c>
-      <c r="J302" s="9" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B303" s="7" t="s">
         <v>1742</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="C303" s="7" t="s">
         <v>1743</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="D303" s="7" t="s">
         <v>1744</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="E303" s="7" t="s">
         <v>1745</v>
       </c>
-      <c r="E303" s="7" t="s">
+      <c r="F303" s="8" t="s">
         <v>1746</v>
-      </c>
-      <c r="F303" s="8" t="s">
-        <v>1747</v>
       </c>
       <c r="G303" s="7"/>
       <c r="H303" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I303" s="8" t="s">
         <v>1748</v>
       </c>
-      <c r="I303" s="8" t="s">
-        <v>1749</v>
-      </c>
       <c r="J303" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B304" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="C304" s="7" t="s">
         <v>1751</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="D304" s="7" t="s">
         <v>1752</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="E304" s="7" t="s">
         <v>1753</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="F304" s="8" t="s">
         <v>1754</v>
-      </c>
-      <c r="F304" s="8" t="s">
-        <v>1755</v>
       </c>
       <c r="G304" s="7"/>
       <c r="H304" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I304" s="8" t="s">
         <v>1756</v>
       </c>
-      <c r="I304" s="8" t="s">
-        <v>1757</v>
-      </c>
       <c r="J304" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B305" s="7" t="s">
         <v>1758</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="C305" s="7" t="s">
         <v>1759</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="D305" s="7" t="s">
         <v>1760</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="E305" s="8" t="s">
         <v>1761</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>1762</v>
       </c>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I305" s="8" t="s">
         <v>1763</v>
       </c>
-      <c r="I305" s="8" t="s">
-        <v>1764</v>
-      </c>
       <c r="J305" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B306" s="7" t="s">
         <v>1765</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="C306" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="D306" s="7" t="s">
         <v>1767</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="E306" s="7" t="s">
         <v>1768</v>
       </c>
-      <c r="E306" s="7" t="s">
+      <c r="F306" s="8" t="s">
         <v>1769</v>
-      </c>
-      <c r="F306" s="8" t="s">
-        <v>1770</v>
       </c>
       <c r="G306" s="7"/>
       <c r="H306" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I306" s="8" t="s">
         <v>1771</v>
       </c>
-      <c r="I306" s="8" t="s">
-        <v>1772</v>
-      </c>
       <c r="J306" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="C307" s="7" t="s">
         <v>1774</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="D307" s="7" t="s">
         <v>1775</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="E307" s="7" t="s">
         <v>1776</v>
       </c>
-      <c r="E307" s="7" t="s">
+      <c r="F307" s="8" t="s">
         <v>1777</v>
-      </c>
-      <c r="F307" s="8" t="s">
-        <v>1778</v>
       </c>
       <c r="G307" s="7"/>
       <c r="H307" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J307" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B308" s="7" t="s">
         <v>1780</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="C308" s="7" t="s">
         <v>1781</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="D308" s="7" t="s">
         <v>1782</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="E308" s="7" t="s">
         <v>1783</v>
       </c>
-      <c r="E308" s="7" t="s">
+      <c r="F308" s="8" t="s">
         <v>1784</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>1785</v>
       </c>
       <c r="G308" s="7"/>
       <c r="H308" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I308" s="8" t="s">
         <v>1786</v>
       </c>
-      <c r="I308" s="8" t="s">
-        <v>1787</v>
-      </c>
       <c r="J308" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="358.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>1788</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="C309" s="7" t="s">
         <v>1789</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="D309" s="7" t="s">
         <v>1790</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="E309" s="8" t="s">
         <v>1791</v>
-      </c>
-      <c r="E309" s="8" t="s">
-        <v>1792</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I309" s="8" t="s">
         <v>1793</v>
       </c>
-      <c r="I309" s="8" t="s">
-        <v>1794</v>
-      </c>
       <c r="J309" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B310" s="7" t="s">
         <v>1795</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="C310" s="7" t="s">
         <v>1796</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="D310" s="7" t="s">
         <v>1797</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="E310" s="7" t="s">
         <v>1798</v>
       </c>
-      <c r="E310" s="7" t="s">
+      <c r="F310" s="8" t="s">
         <v>1799</v>
-      </c>
-      <c r="F310" s="8" t="s">
-        <v>1800</v>
       </c>
       <c r="G310" s="7"/>
       <c r="H310" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="384" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B311" s="7" t="s">
         <v>1802</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="C311" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="D311" s="7" t="s">
         <v>1804</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="E311" s="7" t="s">
         <v>1805</v>
       </c>
-      <c r="E311" s="7" t="s">
+      <c r="F311" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="F311" s="7" t="s">
+      <c r="G311" s="7" t="s">
         <v>1807</v>
       </c>
-      <c r="G311" s="7" t="s">
+      <c r="H311" s="7" t="s">
         <v>1808</v>
       </c>
-      <c r="H311" s="7" t="s">
+      <c r="I311" s="8" t="s">
         <v>1809</v>
       </c>
-      <c r="I311" s="8" t="s">
-        <v>1810</v>
-      </c>
       <c r="J311" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="320.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B312" s="7" t="s">
         <v>1811</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>1812</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="D312" s="7" t="s">
         <v>1813</v>
       </c>
-      <c r="D312" s="7" t="s">
+      <c r="E312" s="8" t="s">
         <v>1814</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>1815</v>
       </c>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
       <c r="H312" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I312" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J312" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B313" s="7" t="s">
         <v>1817</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="C313" s="7" t="s">
         <v>1818</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="D313" s="7" t="s">
         <v>1819</v>
       </c>
-      <c r="D313" s="7" t="s">
+      <c r="E313" s="7" t="s">
         <v>1820</v>
-      </c>
-      <c r="E313" s="7" t="s">
-        <v>1821</v>
       </c>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
       <c r="H313" s="7" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I313" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="J313" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B314" s="7" t="s">
         <v>1823</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="C314" s="7" t="s">
         <v>1824</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="D314" s="7" t="s">
         <v>1825</v>
       </c>
-      <c r="D314" s="7" t="s">
+      <c r="E314" s="8" t="s">
         <v>1826</v>
-      </c>
-      <c r="E314" s="8" t="s">
-        <v>1827</v>
       </c>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J314" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B315" s="7" t="s">
         <v>1829</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="C315" s="7" t="s">
         <v>1830</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="D315" s="7" t="s">
         <v>1831</v>
       </c>
-      <c r="D315" s="7" t="s">
+      <c r="E315" s="8" t="s">
         <v>1832</v>
-      </c>
-      <c r="E315" s="8" t="s">
-        <v>1833</v>
       </c>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
       <c r="H315" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="J315" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B316" s="7" t="s">
         <v>1835</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="C316" s="7" t="s">
         <v>1836</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="D316" s="7" t="s">
         <v>1837</v>
       </c>
-      <c r="D316" s="7" t="s">
+      <c r="E316" s="7" t="s">
         <v>1838</v>
       </c>
-      <c r="E316" s="7" t="s">
+      <c r="F316" s="7" t="s">
         <v>1839</v>
       </c>
-      <c r="F316" s="7" t="s">
+      <c r="G316" s="7" t="s">
         <v>1840</v>
       </c>
-      <c r="G316" s="7" t="s">
+      <c r="H316" s="7" t="s">
         <v>1841</v>
       </c>
-      <c r="H316" s="7" t="s">
+      <c r="I316" s="8" t="s">
         <v>1842</v>
       </c>
-      <c r="I316" s="8" t="s">
-        <v>1843</v>
-      </c>
       <c r="J316" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="282" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B317" s="7" t="s">
         <v>1844</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="C317" s="7" t="s">
         <v>1845</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="D317" s="7" t="s">
         <v>1846</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="E317" s="7" t="s">
         <v>1847</v>
       </c>
-      <c r="E317" s="7" t="s">
+      <c r="F317" s="8" t="s">
         <v>1848</v>
-      </c>
-      <c r="F317" s="8" t="s">
-        <v>1849</v>
       </c>
       <c r="G317" s="7"/>
       <c r="H317" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I317" s="8" t="s">
         <v>1850</v>
       </c>
-      <c r="I317" s="8" t="s">
-        <v>1851</v>
-      </c>
       <c r="J317" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B318" s="7" t="s">
         <v>1852</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="C318" s="7" t="s">
         <v>1853</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="D318" s="7" t="s">
         <v>1854</v>
       </c>
-      <c r="D318" s="7" t="s">
+      <c r="E318" s="8" t="s">
         <v>1855</v>
-      </c>
-      <c r="E318" s="8" t="s">
-        <v>1856</v>
       </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I318" s="8" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J318" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B319" s="7" t="s">
         <v>1858</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="C319" s="7" t="s">
         <v>1859</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="D319" s="7" t="s">
         <v>1860</v>
       </c>
-      <c r="D319" s="7" t="s">
+      <c r="E319" s="7" t="s">
         <v>1861</v>
       </c>
-      <c r="E319" s="7" t="s">
+      <c r="F319" s="8" t="s">
         <v>1862</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>1863</v>
       </c>
       <c r="G319" s="7"/>
       <c r="H319" s="7" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I319" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="J319" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B320" s="7" t="s">
         <v>1865</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="C320" s="7" t="s">
         <v>1866</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="D320" s="7" t="s">
         <v>1867</v>
       </c>
-      <c r="D320" s="7" t="s">
+      <c r="E320" s="7" t="s">
         <v>1868</v>
       </c>
-      <c r="E320" s="7" t="s">
+      <c r="F320" s="8" t="s">
         <v>1869</v>
-      </c>
-      <c r="F320" s="8" t="s">
-        <v>1870</v>
       </c>
       <c r="G320" s="7"/>
       <c r="H320" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I320" s="8" t="s">
         <v>1871</v>
       </c>
-      <c r="I320" s="8" t="s">
-        <v>1872</v>
-      </c>
       <c r="J320" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="384" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B321" s="7" t="s">
         <v>1873</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="C321" s="7" t="s">
         <v>1874</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="D321" s="7" t="s">
         <v>1875</v>
       </c>
-      <c r="D321" s="7" t="s">
+      <c r="E321" s="8" t="s">
         <v>1876</v>
-      </c>
-      <c r="E321" s="8" t="s">
-        <v>1877</v>
       </c>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I321" s="8" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J321" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B322" s="7" t="s">
         <v>1879</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="C322" s="7" t="s">
         <v>1880</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="D322" s="7" t="s">
         <v>1881</v>
       </c>
-      <c r="D322" s="7" t="s">
+      <c r="E322" s="7" t="s">
         <v>1882</v>
       </c>
-      <c r="E322" s="7" t="s">
+      <c r="F322" s="8" t="s">
         <v>1883</v>
-      </c>
-      <c r="F322" s="8" t="s">
-        <v>1884</v>
       </c>
       <c r="G322" s="7"/>
       <c r="H322" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I322" s="8" t="s">
         <v>1885</v>
       </c>
-      <c r="I322" s="8" t="s">
-        <v>1886</v>
-      </c>
       <c r="J322" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>1887</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="C323" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="D323" s="7" t="s">
         <v>1889</v>
       </c>
-      <c r="D323" s="7" t="s">
+      <c r="E323" s="8" t="s">
         <v>1890</v>
-      </c>
-      <c r="E323" s="8" t="s">
-        <v>1891</v>
       </c>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I323" s="8" t="s">
         <v>1892</v>
       </c>
-      <c r="I323" s="8" t="s">
-        <v>1893</v>
-      </c>
       <c r="J323" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B324" s="7" t="s">
         <v>1894</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="C324" s="7" t="s">
         <v>1895</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="D324" s="7" t="s">
         <v>1896</v>
       </c>
-      <c r="D324" s="7" t="s">
+      <c r="E324" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="E324" s="7" t="s">
+      <c r="F324" s="7" t="s">
         <v>1898</v>
       </c>
-      <c r="F324" s="7" t="s">
+      <c r="G324" s="7" t="s">
         <v>1899</v>
       </c>
-      <c r="G324" s="7" t="s">
+      <c r="H324" s="7" t="s">
         <v>1900</v>
       </c>
-      <c r="H324" s="7" t="s">
+      <c r="I324" s="8" t="s">
         <v>1901</v>
       </c>
-      <c r="I324" s="8" t="s">
-        <v>1902</v>
-      </c>
       <c r="J324" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B325" s="7" t="s">
         <v>1903</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="C325" s="7" t="s">
         <v>1904</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="D325" s="7" t="s">
         <v>1905</v>
       </c>
-      <c r="D325" s="7" t="s">
+      <c r="E325" s="7" t="s">
         <v>1906</v>
       </c>
-      <c r="E325" s="7" t="s">
+      <c r="F325" s="8" t="s">
         <v>1907</v>
-      </c>
-      <c r="F325" s="8" t="s">
-        <v>1908</v>
       </c>
       <c r="G325" s="7"/>
       <c r="H325" s="7" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="J325" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>1910</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="C326" s="7" t="s">
         <v>1911</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="D326" s="7" t="s">
         <v>1912</v>
       </c>
-      <c r="D326" s="7" t="s">
+      <c r="E326" s="7" t="s">
         <v>1913</v>
       </c>
-      <c r="E326" s="7" t="s">
+      <c r="F326" s="8" t="s">
         <v>1914</v>
-      </c>
-      <c r="F326" s="8" t="s">
-        <v>1915</v>
       </c>
       <c r="G326" s="7"/>
       <c r="H326" s="7" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="J326" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B327" s="7" t="s">
         <v>1917</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="C327" s="7" t="s">
         <v>1918</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="D327" s="7" t="s">
         <v>1919</v>
       </c>
-      <c r="D327" s="7" t="s">
+      <c r="E327" s="7" t="s">
         <v>1920</v>
       </c>
-      <c r="E327" s="7" t="s">
+      <c r="F327" s="8" t="s">
         <v>1921</v>
-      </c>
-      <c r="F327" s="8" t="s">
-        <v>1922</v>
       </c>
       <c r="G327" s="7"/>
       <c r="H327" s="7" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I327" s="8" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="J327" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B328" s="7" t="s">
         <v>1924</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="C328" s="7" t="s">
         <v>1925</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="D328" s="7" t="s">
         <v>1926</v>
       </c>
-      <c r="D328" s="7" t="s">
+      <c r="E328" s="7" t="s">
         <v>1927</v>
       </c>
-      <c r="E328" s="7" t="s">
+      <c r="F328" s="8" t="s">
         <v>1928</v>
-      </c>
-      <c r="F328" s="8" t="s">
-        <v>1929</v>
       </c>
       <c r="G328" s="7"/>
       <c r="H328" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I328" s="8" t="s">
         <v>1930</v>
       </c>
-      <c r="I328" s="8" t="s">
-        <v>1931</v>
-      </c>
       <c r="J328" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B329" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="C329" s="7" t="s">
         <v>1933</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="D329" s="7" t="s">
         <v>1934</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="E329" s="7" t="s">
         <v>1935</v>
       </c>
-      <c r="E329" s="7" t="s">
+      <c r="F329" s="8" t="s">
         <v>1936</v>
-      </c>
-      <c r="F329" s="8" t="s">
-        <v>1937</v>
       </c>
       <c r="G329" s="7"/>
       <c r="H329" s="7" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I329" s="8" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J329" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>1939</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="C330" s="7" t="s">
         <v>1940</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="D330" s="7" t="s">
         <v>1941</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="E330" s="7" t="s">
         <v>1942</v>
       </c>
-      <c r="E330" s="7" t="s">
+      <c r="F330" s="7" t="s">
         <v>1943</v>
       </c>
-      <c r="F330" s="7" t="s">
+      <c r="G330" s="7" t="s">
         <v>1944</v>
       </c>
-      <c r="G330" s="7" t="s">
+      <c r="H330" s="7" t="s">
         <v>1945</v>
       </c>
-      <c r="H330" s="7" t="s">
+      <c r="I330" s="8" t="s">
         <v>1946</v>
       </c>
-      <c r="I330" s="8" t="s">
-        <v>1947</v>
-      </c>
       <c r="J330" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B331" s="7" t="s">
         <v>1948</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="C331" s="7" t="s">
         <v>1949</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="D331" s="7" t="s">
         <v>1950</v>
       </c>
-      <c r="D331" s="7" t="s">
+      <c r="E331" s="7" t="s">
         <v>1951</v>
       </c>
-      <c r="E331" s="7" t="s">
+      <c r="F331" s="7" t="s">
         <v>1952</v>
       </c>
-      <c r="F331" s="7" t="s">
+      <c r="G331" s="7" t="s">
         <v>1953</v>
       </c>
-      <c r="G331" s="7" t="s">
+      <c r="H331" s="7" t="s">
         <v>1954</v>
       </c>
-      <c r="H331" s="7" t="s">
+      <c r="I331" s="8" t="s">
         <v>1955</v>
       </c>
-      <c r="I331" s="8" t="s">
-        <v>1956</v>
-      </c>
       <c r="J331" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>1957</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="C332" s="7" t="s">
         <v>1958</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="D332" s="7" t="s">
         <v>1959</v>
       </c>
-      <c r="D332" s="7" t="s">
+      <c r="E332" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="E332" s="7" t="s">
+      <c r="F332" s="8" t="s">
         <v>1961</v>
-      </c>
-      <c r="F332" s="8" t="s">
-        <v>1962</v>
       </c>
       <c r="G332" s="7"/>
       <c r="H332" s="7" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I332" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="J332" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B333" s="7" t="s">
         <v>1964</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="C333" s="7" t="s">
         <v>1965</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="D333" s="7" t="s">
         <v>1966</v>
       </c>
-      <c r="D333" s="7" t="s">
+      <c r="E333" s="8" t="s">
         <v>1967</v>
-      </c>
-      <c r="E333" s="8" t="s">
-        <v>1968</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I333" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J333" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>1970</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="C334" s="7" t="s">
         <v>1971</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="D334" s="7" t="s">
         <v>1972</v>
       </c>
-      <c r="D334" s="7" t="s">
+      <c r="E334" s="8" t="s">
         <v>1973</v>
-      </c>
-      <c r="E334" s="8" t="s">
-        <v>1974</v>
       </c>
       <c r="F334" s="7"/>
       <c r="G334" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H334" s="8" t="s">
         <v>1975</v>
-      </c>
-      <c r="H334" s="8" t="s">
-        <v>1976</v>
       </c>
       <c r="I334" s="7"/>
       <c r="J334" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>1977</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="C335" s="7" t="s">
         <v>1978</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="D335" s="7" t="s">
         <v>1979</v>
       </c>
-      <c r="D335" s="7" t="s">
+      <c r="E335" s="7" t="s">
         <v>1980</v>
       </c>
-      <c r="E335" s="7" t="s">
+      <c r="F335" s="7" t="s">
         <v>1981</v>
       </c>
-      <c r="F335" s="7" t="s">
+      <c r="G335" s="7" t="s">
         <v>1982</v>
       </c>
-      <c r="G335" s="7" t="s">
+      <c r="H335" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I335" s="8" t="s">
         <v>1983</v>
       </c>
-      <c r="H335" s="7" t="s">
-        <v>1842</v>
-      </c>
-      <c r="I335" s="8" t="s">
-        <v>1984</v>
-      </c>
       <c r="J335" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>1985</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="C336" s="7" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="D336" s="7" t="s">
         <v>1987</v>
       </c>
-      <c r="D336" s="7" t="s">
+      <c r="E336" s="7" t="s">
         <v>1988</v>
       </c>
-      <c r="E336" s="7" t="s">
+      <c r="F336" s="8" t="s">
         <v>1989</v>
-      </c>
-      <c r="F336" s="8" t="s">
-        <v>1990</v>
       </c>
       <c r="G336" s="7"/>
       <c r="H336" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I336" s="8" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J336" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B337" s="7" t="s">
         <v>1992</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="C337" s="7" t="s">
         <v>1993</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="D337" s="7" t="s">
         <v>1994</v>
       </c>
-      <c r="D337" s="7" t="s">
+      <c r="E337" s="8" t="s">
         <v>1995</v>
-      </c>
-      <c r="E337" s="8" t="s">
-        <v>1996</v>
       </c>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I337" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J337" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>1998</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="C338" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="D338" s="7" t="s">
         <v>2000</v>
       </c>
-      <c r="D338" s="7" t="s">
+      <c r="E338" s="7" t="s">
         <v>2001</v>
       </c>
-      <c r="E338" s="7" t="s">
+      <c r="F338" s="7" t="s">
         <v>2002</v>
-      </c>
-      <c r="F338" s="7" t="s">
-        <v>2003</v>
       </c>
       <c r="G338" s="7"/>
       <c r="H338" s="7" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J338" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B339" s="7" t="s">
         <v>2005</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="C339" s="7" t="s">
         <v>2006</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="D339" s="7" t="s">
         <v>2007</v>
       </c>
-      <c r="D339" s="7" t="s">
+      <c r="E339" s="7" t="s">
         <v>2008</v>
       </c>
-      <c r="E339" s="7" t="s">
+      <c r="F339" s="8" t="s">
         <v>2009</v>
-      </c>
-      <c r="F339" s="8" t="s">
-        <v>2010</v>
       </c>
       <c r="G339" s="7"/>
       <c r="H339" s="7" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I339" s="8" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="J339" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>2012</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="C340" s="7" t="s">
         <v>2013</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="D340" s="7" t="s">
         <v>2014</v>
       </c>
-      <c r="D340" s="7" t="s">
+      <c r="E340" s="8" t="s">
         <v>2015</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>2016</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I340" s="8" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J340" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>2018</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="C341" s="7" t="s">
         <v>2019</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="D341" s="7" t="s">
         <v>2020</v>
       </c>
-      <c r="D341" s="7" t="s">
+      <c r="E341" s="7" t="s">
         <v>2021</v>
       </c>
-      <c r="E341" s="7" t="s">
+      <c r="F341" s="8" t="s">
         <v>2022</v>
-      </c>
-      <c r="F341" s="8" t="s">
-        <v>2023</v>
       </c>
       <c r="G341" s="7"/>
       <c r="H341" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I341" s="8" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J341" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B342" s="7" t="s">
         <v>2025</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="C342" s="7" t="s">
         <v>2026</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="D342" s="7" t="s">
         <v>2027</v>
       </c>
-      <c r="D342" s="7" t="s">
+      <c r="E342" s="8" t="s">
         <v>2028</v>
-      </c>
-      <c r="E342" s="8" t="s">
-        <v>2029</v>
       </c>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I342" s="8" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="J342" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B343" s="7" t="s">
         <v>2031</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="C343" s="7" t="s">
         <v>2032</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="D343" s="7" t="s">
         <v>2033</v>
       </c>
-      <c r="D343" s="7" t="s">
+      <c r="E343" s="7" t="s">
         <v>2034</v>
       </c>
-      <c r="E343" s="7" t="s">
+      <c r="F343" s="8" t="s">
         <v>2035</v>
-      </c>
-      <c r="F343" s="8" t="s">
-        <v>2036</v>
       </c>
       <c r="G343" s="7"/>
       <c r="H343" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I343" s="8" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="J343" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B344" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="C344" s="7" t="s">
         <v>2039</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="D344" s="7" t="s">
         <v>2040</v>
       </c>
-      <c r="D344" s="7" t="s">
+      <c r="E344" s="7" t="s">
         <v>2041</v>
       </c>
-      <c r="E344" s="7" t="s">
+      <c r="F344" s="8" t="s">
         <v>2042</v>
-      </c>
-      <c r="F344" s="8" t="s">
-        <v>2043</v>
       </c>
       <c r="G344" s="7"/>
       <c r="H344" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I344" s="8" t="s">
         <v>2044</v>
       </c>
-      <c r="I344" s="8" t="s">
-        <v>2045</v>
-      </c>
       <c r="J344" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>2046</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="C345" s="7" t="s">
         <v>2047</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="D345" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="D345" s="7" t="s">
+      <c r="E345" s="7" t="s">
         <v>2049</v>
       </c>
-      <c r="E345" s="7" t="s">
+      <c r="F345" s="8" t="s">
         <v>2050</v>
-      </c>
-      <c r="F345" s="8" t="s">
-        <v>2051</v>
       </c>
       <c r="G345" s="7"/>
       <c r="H345" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I345" s="8" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="J345" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>2053</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="C346" s="7" t="s">
         <v>2054</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="D346" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="D346" s="7" t="s">
+      <c r="E346" s="8" t="s">
         <v>2056</v>
-      </c>
-      <c r="E346" s="8" t="s">
-        <v>2057</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
       <c r="H346" s="7" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J346" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B347" s="7" t="s">
         <v>2059</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="C347" s="7" t="s">
         <v>2060</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="D347" s="7" t="s">
         <v>2061</v>
       </c>
-      <c r="D347" s="7" t="s">
+      <c r="E347" s="8" t="s">
         <v>2062</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>2063</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I347" s="8" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="J347" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B348" s="7" t="s">
         <v>2065</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="C348" s="7" t="s">
         <v>2066</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="D348" s="7" t="s">
         <v>2067</v>
       </c>
-      <c r="D348" s="7" t="s">
+      <c r="E348" s="8" t="s">
         <v>2068</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>2069</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="I348" s="8" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="J348" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B349" s="7" t="s">
         <v>2071</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="C349" s="7" t="s">
         <v>2072</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="D349" s="7" t="s">
         <v>2073</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="E349" s="7" t="s">
         <v>2074</v>
       </c>
-      <c r="E349" s="7" t="s">
+      <c r="F349" s="8" t="s">
         <v>2075</v>
-      </c>
-      <c r="F349" s="8" t="s">
-        <v>2076</v>
       </c>
       <c r="G349" s="7"/>
       <c r="H349" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I349" s="8" t="s">
         <v>2077</v>
       </c>
-      <c r="I349" s="8" t="s">
-        <v>2078</v>
-      </c>
       <c r="J349" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B350" s="7" t="s">
         <v>2079</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="C350" s="7" t="s">
         <v>2080</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="D350" s="7" t="s">
         <v>2081</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="E350" s="8" t="s">
         <v>2082</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>2083</v>
       </c>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I350" s="8" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="J350" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B351" s="7" t="s">
         <v>2085</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="C351" s="7" t="s">
         <v>2086</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="D351" s="7" t="s">
         <v>2087</v>
       </c>
-      <c r="D351" s="7" t="s">
+      <c r="E351" s="7" t="s">
         <v>2088</v>
       </c>
-      <c r="E351" s="7" t="s">
+      <c r="F351" s="8" t="s">
         <v>2089</v>
-      </c>
-      <c r="F351" s="8" t="s">
-        <v>2090</v>
       </c>
       <c r="G351" s="7"/>
       <c r="H351" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I351" s="8" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="J351" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B352" s="7" t="s">
         <v>2092</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="C352" s="7" t="s">
         <v>2093</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="D352" s="7" t="s">
         <v>2094</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="E352" s="7" t="s">
         <v>2095</v>
       </c>
-      <c r="E352" s="7" t="s">
+      <c r="F352" s="8" t="s">
         <v>2096</v>
-      </c>
-      <c r="F352" s="8" t="s">
-        <v>2097</v>
       </c>
       <c r="G352" s="7"/>
       <c r="H352" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="I352" s="8" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="J352" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>2099</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="C353" s="7" t="s">
         <v>2100</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="D353" s="7" t="s">
         <v>2101</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="E353" s="7" t="s">
         <v>2102</v>
       </c>
-      <c r="E353" s="7" t="s">
+      <c r="F353" s="8" t="s">
         <v>2103</v>
-      </c>
-      <c r="F353" s="8" t="s">
-        <v>2104</v>
       </c>
       <c r="G353" s="7"/>
       <c r="H353" s="7" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="J353" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>2106</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="C354" s="7" t="s">
         <v>2107</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>2108</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="E354" s="7" t="s">
         <v>2109</v>
       </c>
-      <c r="E354" s="7" t="s">
+      <c r="F354" s="8" t="s">
         <v>2110</v>
-      </c>
-      <c r="F354" s="8" t="s">
-        <v>2111</v>
       </c>
       <c r="G354" s="7"/>
       <c r="H354" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I354" s="8" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J354" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B355" s="7" t="s">
         <v>2113</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>2114</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="D355" s="7" t="s">
         <v>2115</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>2116</v>
       </c>
-      <c r="E355" s="7" t="s">
+      <c r="F355" s="8" t="s">
         <v>2117</v>
-      </c>
-      <c r="F355" s="8" t="s">
-        <v>2118</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="J355" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>2120</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="C356" s="7" t="s">
         <v>2121</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="D356" s="7" t="s">
         <v>2122</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="E356" s="7" t="s">
         <v>2123</v>
       </c>
-      <c r="E356" s="7" t="s">
+      <c r="F356" s="8" t="s">
         <v>2124</v>
-      </c>
-      <c r="F356" s="8" t="s">
-        <v>2125</v>
       </c>
       <c r="G356" s="7"/>
       <c r="H356" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I356" s="8" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="J356" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>2127</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="C357" s="7" t="s">
         <v>2128</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="D357" s="7" t="s">
         <v>2129</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="E357" s="7" t="s">
         <v>2130</v>
       </c>
-      <c r="E357" s="7" t="s">
+      <c r="F357" s="8" t="s">
         <v>2131</v>
-      </c>
-      <c r="F357" s="8" t="s">
-        <v>2132</v>
       </c>
       <c r="G357" s="7"/>
       <c r="H357" s="7" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="I357" s="8" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="J357" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B358" s="7" t="s">
         <v>2134</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="C358" s="7" t="s">
         <v>2135</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="D358" s="7" t="s">
         <v>2136</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="E358" s="7" t="s">
         <v>2137</v>
       </c>
-      <c r="E358" s="7" t="s">
+      <c r="F358" s="8" t="s">
         <v>2138</v>
-      </c>
-      <c r="F358" s="8" t="s">
-        <v>2139</v>
       </c>
       <c r="G358" s="7"/>
       <c r="H358" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="J358" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B359" s="7" t="s">
         <v>2141</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="C359" s="7" t="s">
         <v>2142</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="D359" s="7" t="s">
         <v>2143</v>
       </c>
-      <c r="D359" s="7" t="s">
+      <c r="E359" s="8" t="s">
         <v>2144</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>2145</v>
       </c>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
       <c r="H359" s="7" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="J359" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B360" s="7" t="s">
         <v>2147</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="C360" s="7" t="s">
         <v>2148</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="D360" s="7" t="s">
         <v>2149</v>
       </c>
-      <c r="D360" s="7" t="s">
+      <c r="E360" s="8" t="s">
         <v>2150</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>2151</v>
       </c>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="J360" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B361" s="7" t="s">
         <v>2153</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="C361" s="7" t="s">
         <v>2154</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="D361" s="7" t="s">
         <v>2155</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>2156</v>
       </c>
-      <c r="E361" s="7" t="s">
+      <c r="F361" s="8" t="s">
         <v>2157</v>
-      </c>
-      <c r="F361" s="8" t="s">
-        <v>2158</v>
       </c>
       <c r="G361" s="7"/>
       <c r="H361" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="J361" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Projects\Java\ultimate-spring-boot-exam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364CB9-E453-4DB2-89DE-88C290451811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482FF97-B0F7-4803-8D74-ED7B69509B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DD256250-6F2E-461F-A121-D4E0D938D1E6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2160">
   <si>
     <t>Question Text</t>
   </si>
@@ -5277,9 +5277,6 @@
     <t>E. @Value(“#{systemProperties.daily.limit}”)</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>The #{...} syntax is used for Spring Expression Language (SpEL), which allows you to access properties and methods. The systemProperties object in SpEL provides access to Java system properties.</t>
   </si>
   <si>
@@ -5301,9 +5298,6 @@
     <t>E. RESTful applications favor tight coupling between the clients and the servers.</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>A key principle of REST is that communication must be stateless. Also, RESTful APIs leverage standard HTTP methods, headers, and status codes to define the contract with clients.</t>
   </si>
   <si>
@@ -5346,9 +5340,6 @@
     <t>E. It provides a strict implementation of the Java EE Security specification.</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>Spring Security allows for both URL-based and method-level security. It is also very flexible and can integrate with various authentication backends, such as databases and LDAP. permitAll() doesn't bypass all security, it just allows access to a specific path for all users.</t>
   </si>
   <si>
@@ -5391,9 +5382,6 @@
     <t>E. Integration and slice testing are both supported.</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>@SpringBootTest is used for integration tests that load the entire application context, while slice tests (e.g., @DataJpaTest) load only a specific part of the context. Both @SpringBootTest and @SpringJUnitConfig can be used to create an application context for tests.</t>
   </si>
   <si>
@@ -5460,9 +5448,6 @@
     <t>F. @Autowired public void setFoo(Foo foo2){…}</t>
   </si>
   <si>
-    <t>BCE</t>
-  </si>
-  <si>
     <t>Options A, D, and F would fail because there are multiple Foo beans, leading to an "ambiguous" dependency. @Qualifier explicitly names which bean to inject. Option E is valid because it uses the field name foo2 which matches one of the bean IDs.</t>
   </si>
   <si>
@@ -5559,9 +5544,6 @@
     <t>F. To encrypt data.</t>
   </si>
   <si>
-    <t>BDE</t>
-  </si>
-  <si>
     <t>Spring Security's filter chain handles core security functions, including authentication (checking user identity), authorization (controlling access to resources), and providing a logout mechanism.</t>
   </si>
   <si>
@@ -5583,9 +5565,6 @@
     <t>E. A JdbcTemplate bean will be created when a bean named dataSource has already been created.</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>@ConditionalOnBean makes the bean creation conditional on the presence of another bean. Specifying the class type is more flexible than a specific name. The code will create the JdbcTemplate bean only if a bean named "dataSource" already exists.</t>
   </si>
   <si>
@@ -5646,9 +5625,6 @@
     <t>E. Sending an HTTP request with a custom header is not possible when using RestTemplate.</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>RestTemplate is a synchronous, blocking client for making HTTP requests. It handles marshaling and unmarshaling Java objects to and from JSON/XML, and it simplifies the process of interacting with RESTful services as a client.</t>
   </si>
   <si>
@@ -5688,9 +5664,6 @@
     <t>E. REST is Relative.</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>REST is an architectural style, not a protocol. It is also stateless. Because it is built on standard protocols like HTTP and uses common data formats, it is highly interoperable.</t>
   </si>
   <si>
@@ -5736,9 +5709,6 @@
     <t>F. PowerMock</t>
   </si>
   <si>
-    <t>BCD</t>
-  </si>
-  <si>
     <t>The spring-boot-starter-test dependency bundle includes several key libraries for testing, such as JUnit, Hamcrest, Mockito, and the spring-test module.</t>
   </si>
   <si>
@@ -5823,9 +5793,6 @@
     <t>E. BeanPostProcessors cannot be ordered in a Spring Boot application.</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>You can create custom BeanPostProcessors to perform logic before or after a bean's initialization. These processors are executed during the bean lifecycle, specifically after bean instantiation but before initialization.</t>
   </si>
   <si>
@@ -5871,9 +5838,6 @@
     <t>F. HttpSession</t>
   </si>
   <si>
-    <t>AEF</t>
-  </si>
-  <si>
     <t>Spring MVC's handler methods can have many different types of arguments injected, including Locale, HttpServletRequest (Request), and HttpSession.</t>
   </si>
   <si>
@@ -5898,9 +5862,6 @@
     <t>F. Dependency injection facilitates loose coupling between components.</t>
   </si>
   <si>
-    <t>CDF</t>
-  </si>
-  <si>
     <t>The primary advantages of DI are loose coupling between components, externalizing and centralizing configuration, and managing dependencies outside of the components themselves. DI does not reduce startup time; in fact, it can slightly increase it.</t>
   </si>
   <si>
@@ -5925,9 +5886,6 @@
     <t>@SpringBootApplication is a convenience annotation that combines @Configuration, @EnableAutoConfiguration, and @ComponentScan. The @ComponentScan part will scan the current package and its sub-packages.</t>
   </si>
   <si>
-    <t>32. Based on the Java code fragment, which statement is true with regard to the above example? (Choose the best answer.)</t>
-  </si>
-  <si>
     <t>A. This syntax is invalid because the result of the getBean() method call should be cast to ClientService.</t>
   </si>
   <si>
@@ -5961,9 +5919,6 @@
     <t>(or),!` (not).</t>
   </si>
   <si>
-    <t>E. A pointcut expression can be used to select join points which have been annotated with a specific annotation.</t>
-  </si>
-  <si>
     <t>34. Which three types of objects can be returned for a JdbcTemplate query? (Choose three.)</t>
   </si>
   <si>
@@ -6165,9 +6120,6 @@
     <t>E. The user details includes username and password but not authorities.</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>Spring Security is flexible and allows you to store user details in various ways, including in-memory, a database, or LDAP. You can implement your own UserDetailsService to retrieve user information from a custom source.</t>
   </si>
   <si>
@@ -6228,9 +6180,6 @@
     <t>@AfterReturning advice is executed after a method has completed successfully and returned a value. It does not execute if the method throws an exception.</t>
   </si>
   <si>
-    <t>47. Which statement is true? (Choose the best answer.)</t>
-  </si>
-  <si>
     <t>A. CustomerRepository should be a class, not an interface.</t>
   </si>
   <si>
@@ -6264,9 +6213,6 @@
     <t>E. Typically it is used to display build or source control information.</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>The info endpoint is used to provide application-specific information like build details, git commit info, etc. It can be customized to display arbitrary data. It is enabled by default.</t>
   </si>
   <si>
@@ -6511,6 +6457,65 @@
   </si>
   <si>
     <t>Spring Data is a family of projects that provide a consistent and simplified programming model for data access, regardless of the underlying data store (relational or NoSQL). It significantly reduces the boilerplate code needed for CRUD operations.</t>
+  </si>
+  <si>
+    <t>A, B</t>
+  </si>
+  <si>
+    <t>C, E</t>
+  </si>
+  <si>
+    <t>A, C</t>
+  </si>
+  <si>
+    <t>B, E</t>
+  </si>
+  <si>
+    <t>B, C, E</t>
+  </si>
+  <si>
+    <t>B, D, E</t>
+  </si>
+  <si>
+    <t>A, E</t>
+  </si>
+  <si>
+    <t>B, C</t>
+  </si>
+  <si>
+    <t>C, D</t>
+  </si>
+  <si>
+    <t>B, C, D</t>
+  </si>
+  <si>
+    <t>B, D</t>
+  </si>
+  <si>
+    <t>A, B, F</t>
+  </si>
+  <si>
+    <t>C, D, F</t>
+  </si>
+  <si>
+    <t>32. ClientService service = applicationContext.getBean(ClientService.class)
+Based on the Java code fragment, which statement is true with regard to the above example? (Choose the best answer.)</t>
+  </si>
+  <si>
+    <t>D, E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A pointcut expression can be used to select join points which have been annotated with a specific annotation.</t>
+  </si>
+  <si>
+    <t>A, B, D</t>
+  </si>
+  <si>
+    <t>47. public interface CustomerRepository extends CrudRepository&lt;Customer,Long&gt;{}
+Which statement is true? (Choose the best answer.)</t>
+  </si>
+  <si>
+    <t>A, D</t>
   </si>
 </sst>
 </file>
@@ -6933,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E3107-8F71-44D1-A758-91CC0C525FFB}">
   <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="H361" sqref="H361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15286,7 +15291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
         <v>1733</v>
       </c>
@@ -15314,7 +15319,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
         <v>1741</v>
       </c>
@@ -15335,10 +15340,10 @@
       </c>
       <c r="G303" s="7"/>
       <c r="H303" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I303" s="8" t="s">
         <v>1747</v>
-      </c>
-      <c r="I303" s="8" t="s">
-        <v>1748</v>
       </c>
       <c r="J303" s="9" t="s">
         <v>1740</v>
@@ -15346,29 +15351,29 @@
     </row>
     <row r="304" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B304" s="7" t="s">
         <v>1749</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="C304" s="7" t="s">
         <v>1750</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="D304" s="7" t="s">
         <v>1751</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="E304" s="7" t="s">
         <v>1752</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="F304" s="8" t="s">
         <v>1753</v>
-      </c>
-      <c r="F304" s="8" t="s">
-        <v>1754</v>
       </c>
       <c r="G304" s="7"/>
       <c r="H304" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I304" s="8" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>1740</v>
@@ -15376,27 +15381,27 @@
     </row>
     <row r="305" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C305" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="D305" s="7" t="s">
         <v>1758</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="E305" s="8" t="s">
         <v>1759</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>1761</v>
       </c>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
       <c r="H305" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I305" s="8" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>1740</v>
@@ -15404,59 +15409,59 @@
     </row>
     <row r="306" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C306" s="7" t="s">
         <v>1764</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="D306" s="7" t="s">
         <v>1765</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="E306" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="F306" s="8" t="s">
         <v>1767</v>
-      </c>
-      <c r="E306" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F306" s="8" t="s">
-        <v>1769</v>
       </c>
       <c r="G306" s="7"/>
       <c r="H306" s="7" t="s">
-        <v>1770</v>
+        <v>2143</v>
       </c>
       <c r="I306" s="8" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D307" s="7" t="s">
         <v>1772</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="E307" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="F307" s="8" t="s">
         <v>1774</v>
-      </c>
-      <c r="D307" s="7" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E307" s="7" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F307" s="8" t="s">
-        <v>1777</v>
       </c>
       <c r="G307" s="7"/>
       <c r="H307" s="7" t="s">
-        <v>1770</v>
+        <v>2143</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>1740</v>
@@ -15464,57 +15469,57 @@
     </row>
     <row r="308" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D308" s="7" t="s">
         <v>1779</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="E308" s="7" t="s">
         <v>1780</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="F308" s="8" t="s">
         <v>1781</v>
-      </c>
-      <c r="D308" s="7" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E308" s="7" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F308" s="8" t="s">
-        <v>1784</v>
       </c>
       <c r="G308" s="7"/>
       <c r="H308" s="7" t="s">
-        <v>1785</v>
+        <v>2144</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="358.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E309" s="8" t="s">
         <v>1787</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D309" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E309" s="8" t="s">
-        <v>1791</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
       <c r="H309" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I309" s="8" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>1740</v>
@@ -15522,109 +15527,109 @@
     </row>
     <row r="310" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E310" s="7" t="s">
         <v>1794</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="F310" s="8" t="s">
         <v>1795</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D310" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E310" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F310" s="8" t="s">
-        <v>1799</v>
       </c>
       <c r="G310" s="7"/>
       <c r="H310" s="7" t="s">
-        <v>1770</v>
+        <v>2143</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="J310" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="384" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E311" s="7" t="s">
         <v>1801</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="F311" s="7" t="s">
         <v>1802</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="G311" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="H311" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I311" s="8" t="s">
         <v>1804</v>
-      </c>
-      <c r="E311" s="7" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F311" s="7" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G311" s="7" t="s">
-        <v>1807</v>
-      </c>
-      <c r="H311" s="7" t="s">
-        <v>1808</v>
-      </c>
-      <c r="I311" s="8" t="s">
-        <v>1809</v>
       </c>
       <c r="J311" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="320.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
       <c r="H312" s="7" t="s">
-        <v>1762</v>
+        <v>1882</v>
       </c>
       <c r="I312" s="8" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
@@ -15632,35 +15637,35 @@
         <v>1738</v>
       </c>
       <c r="I313" s="8" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="J313" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
       <c r="H314" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I314" s="8" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="J314" s="9" t="s">
         <v>1740</v>
@@ -15668,89 +15673,89 @@
     </row>
     <row r="315" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
       <c r="H315" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F316" s="7" t="s">
         <v>1834</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="G316" s="7" t="s">
         <v>1835</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="H316" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I316" s="8" t="s">
         <v>1836</v>
-      </c>
-      <c r="D316" s="7" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E316" s="7" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F316" s="7" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G316" s="7" t="s">
-        <v>1840</v>
-      </c>
-      <c r="H316" s="7" t="s">
-        <v>1841</v>
-      </c>
-      <c r="I316" s="8" t="s">
-        <v>1842</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="282" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="G317" s="7"/>
       <c r="H317" s="7" t="s">
-        <v>1849</v>
+        <v>2147</v>
       </c>
       <c r="I317" s="8" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="J317" s="9" t="s">
         <v>1740</v>
@@ -15758,27 +15763,27 @@
     </row>
     <row r="318" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I318" s="8" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="J318" s="9" t="s">
         <v>1740</v>
@@ -15786,59 +15791,59 @@
     </row>
     <row r="319" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="G319" s="7"/>
       <c r="H319" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I319" s="8" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="G320" s="7"/>
       <c r="H320" s="7" t="s">
-        <v>1870</v>
+        <v>2148</v>
       </c>
       <c r="I320" s="8" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="J320" s="9" t="s">
         <v>1740</v>
@@ -15846,57 +15851,57 @@
     </row>
     <row r="321" spans="1:10" ht="384" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
       <c r="H321" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I321" s="8" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="G322" s="7"/>
       <c r="H322" s="7" t="s">
-        <v>1884</v>
+        <v>2149</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>1740</v>
@@ -15904,59 +15909,59 @@
     </row>
     <row r="323" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
       <c r="H323" s="7" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="I323" s="8" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="J323" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>1900</v>
+        <v>2150</v>
       </c>
       <c r="I324" s="8" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="J324" s="9" t="s">
         <v>1740</v>
@@ -15964,29 +15969,29 @@
     </row>
     <row r="325" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="G325" s="7"/>
       <c r="H325" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="J325" s="9" t="s">
         <v>1740</v>
@@ -15994,89 +15999,89 @@
     </row>
     <row r="326" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="G326" s="7"/>
       <c r="H326" s="7" t="s">
-        <v>1870</v>
+        <v>2148</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="J326" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="G327" s="7"/>
       <c r="H327" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I327" s="8" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="J327" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="G328" s="7"/>
       <c r="H328" s="7" t="s">
-        <v>1929</v>
+        <v>2151</v>
       </c>
       <c r="I328" s="8" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="J328" s="9" t="s">
         <v>1740</v>
@@ -16084,61 +16089,61 @@
     </row>
     <row r="329" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="G329" s="7"/>
       <c r="H329" s="7" t="s">
-        <v>1785</v>
+        <v>2144</v>
       </c>
       <c r="I329" s="8" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="J329" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>1940</v>
+        <v>1929</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>1942</v>
+        <v>1931</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="G330" s="7" t="s">
-        <v>1944</v>
+        <v>1933</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>1945</v>
+        <v>2152</v>
       </c>
       <c r="I330" s="8" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="J330" s="9" t="s">
         <v>1740</v>
@@ -16146,179 +16151,181 @@
     </row>
     <row r="331" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="F331" s="7" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>1954</v>
+        <v>2153</v>
       </c>
       <c r="I331" s="8" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="J331" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1958</v>
+        <v>1945</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>1959</v>
+        <v>1946</v>
       </c>
       <c r="E332" s="7" t="s">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>1961</v>
+        <v>1948</v>
       </c>
       <c r="G332" s="7"/>
       <c r="H332" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I332" s="8" t="s">
-        <v>1962</v>
+        <v>1949</v>
       </c>
       <c r="J332" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>1963</v>
+        <v>2154</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>1964</v>
+        <v>1950</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1965</v>
+        <v>1951</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>1967</v>
+        <v>1953</v>
       </c>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I333" s="8" t="s">
-        <v>1968</v>
+        <v>1954</v>
       </c>
       <c r="J333" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>1970</v>
+        <v>1956</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1971</v>
+        <v>1957</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>1972</v>
+        <v>1958</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1973</v>
+        <v>1959</v>
       </c>
       <c r="F334" s="7"/>
       <c r="G334" s="7" t="s">
-        <v>1974</v>
+        <v>1960</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>1975</v>
-      </c>
-      <c r="I334" s="7"/>
+        <v>2155</v>
+      </c>
+      <c r="I334" s="7" t="s">
+        <v>2156</v>
+      </c>
       <c r="J334" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>1979</v>
+        <v>1964</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>1841</v>
+        <v>2157</v>
       </c>
       <c r="I335" s="8" t="s">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="J335" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>1985</v>
+        <v>1970</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>1987</v>
+        <v>1972</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="G336" s="7"/>
       <c r="H336" s="7" t="s">
-        <v>1849</v>
+        <v>2147</v>
       </c>
       <c r="I336" s="8" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>1740</v>
@@ -16326,57 +16333,57 @@
     </row>
     <row r="337" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
       <c r="H337" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I337" s="8" t="s">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="G338" s="7"/>
       <c r="H338" s="7" t="s">
-        <v>1849</v>
+        <v>2147</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>1740</v>
@@ -16384,29 +16391,29 @@
     </row>
     <row r="339" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="G339" s="7"/>
       <c r="H339" s="7" t="s">
-        <v>1755</v>
+        <v>2141</v>
       </c>
       <c r="I339" s="8" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>1740</v>
@@ -16414,85 +16421,85 @@
     </row>
     <row r="340" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
       <c r="H340" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I340" s="8" t="s">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="269.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="G341" s="7"/>
       <c r="H341" s="7" t="s">
-        <v>1929</v>
+        <v>2151</v>
       </c>
       <c r="I341" s="8" t="s">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>2027</v>
+        <v>2012</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>2028</v>
+        <v>2013</v>
       </c>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
       <c r="H342" s="7" t="s">
-        <v>1762</v>
+        <v>1882</v>
       </c>
       <c r="I342" s="8" t="s">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>1740</v>
@@ -16500,29 +16507,29 @@
     </row>
     <row r="343" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>2031</v>
+        <v>2016</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>2032</v>
+        <v>2017</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>2034</v>
+        <v>2019</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="G343" s="7"/>
       <c r="H343" s="7" t="s">
-        <v>1929</v>
+        <v>2151</v>
       </c>
       <c r="I343" s="8" t="s">
-        <v>2036</v>
+        <v>2021</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>1740</v>
@@ -16530,29 +16537,29 @@
     </row>
     <row r="344" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>2038</v>
+        <v>2023</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="G344" s="7"/>
       <c r="H344" s="7" t="s">
-        <v>2043</v>
+        <v>2149</v>
       </c>
       <c r="I344" s="8" t="s">
-        <v>2044</v>
+        <v>2028</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>1740</v>
@@ -16560,29 +16567,29 @@
     </row>
     <row r="345" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>2045</v>
+        <v>2029</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>2046</v>
+        <v>2030</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>2048</v>
+        <v>2032</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>2049</v>
+        <v>2033</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>2050</v>
+        <v>2034</v>
       </c>
       <c r="G345" s="7"/>
       <c r="H345" s="7" t="s">
-        <v>1770</v>
+        <v>2143</v>
       </c>
       <c r="I345" s="8" t="s">
-        <v>2051</v>
+        <v>2035</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>1740</v>
@@ -16590,19 +16597,19 @@
     </row>
     <row r="346" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>2052</v>
+        <v>2036</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>2053</v>
+        <v>2037</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>2054</v>
+        <v>2038</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>2055</v>
+        <v>2039</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>2056</v>
+        <v>2040</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
@@ -16610,7 +16617,7 @@
         <v>1738</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>2057</v>
+        <v>2041</v>
       </c>
       <c r="J346" s="9" t="s">
         <v>1740</v>
@@ -16618,27 +16625,27 @@
     </row>
     <row r="347" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>2058</v>
+        <v>2042</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>2059</v>
+        <v>2043</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>2060</v>
+        <v>2044</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>2061</v>
+        <v>2045</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>2062</v>
+        <v>2046</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
       <c r="H347" s="7" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I347" s="8" t="s">
-        <v>2063</v>
+        <v>2047</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>1740</v>
@@ -16646,27 +16653,27 @@
     </row>
     <row r="348" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>2064</v>
+        <v>2158</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>2065</v>
+        <v>2048</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>2067</v>
+        <v>2050</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>2068</v>
+        <v>2051</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
       <c r="H348" s="7" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="I348" s="8" t="s">
-        <v>2069</v>
+        <v>2052</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>1740</v>
@@ -16674,29 +16681,29 @@
     </row>
     <row r="349" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
-        <v>2070</v>
+        <v>2053</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>2071</v>
+        <v>2054</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>2072</v>
+        <v>2055</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>2073</v>
+        <v>2056</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>2074</v>
+        <v>2057</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>2075</v>
+        <v>2058</v>
       </c>
       <c r="G349" s="7"/>
       <c r="H349" s="7" t="s">
-        <v>2076</v>
+        <v>2142</v>
       </c>
       <c r="I349" s="8" t="s">
-        <v>2077</v>
+        <v>2059</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>1740</v>
@@ -16704,27 +16711,27 @@
     </row>
     <row r="350" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
-        <v>2078</v>
+        <v>2060</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>2079</v>
+        <v>2061</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>2080</v>
+        <v>2062</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>2081</v>
+        <v>2063</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>2082</v>
+        <v>2064</v>
       </c>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
       <c r="H350" s="7" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="I350" s="8" t="s">
-        <v>2083</v>
+        <v>2065</v>
       </c>
       <c r="J350" s="9" t="s">
         <v>1740</v>
@@ -16732,89 +16739,89 @@
     </row>
     <row r="351" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>2084</v>
+        <v>2066</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>2085</v>
+        <v>2067</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>2086</v>
+        <v>2068</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>2087</v>
+        <v>2069</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>2088</v>
+        <v>2070</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>2089</v>
+        <v>2071</v>
       </c>
       <c r="G351" s="7"/>
       <c r="H351" s="7" t="s">
-        <v>2043</v>
+        <v>2149</v>
       </c>
       <c r="I351" s="8" t="s">
-        <v>2090</v>
+        <v>2072</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>2091</v>
+        <v>2073</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>2092</v>
+        <v>2074</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>2093</v>
+        <v>2075</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>2094</v>
+        <v>2076</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>2095</v>
+        <v>2077</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>2096</v>
+        <v>2078</v>
       </c>
       <c r="G352" s="7"/>
       <c r="H352" s="7" t="s">
-        <v>1884</v>
+        <v>2159</v>
       </c>
       <c r="I352" s="8" t="s">
-        <v>2097</v>
+        <v>2079</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="256.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>2098</v>
+        <v>2080</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>2099</v>
+        <v>2081</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>2100</v>
+        <v>2082</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>2101</v>
+        <v>2083</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>2102</v>
+        <v>2084</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>2103</v>
+        <v>2085</v>
       </c>
       <c r="G353" s="7"/>
       <c r="H353" s="7" t="s">
-        <v>1870</v>
+        <v>2148</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>2104</v>
+        <v>2086</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>1740</v>
@@ -16822,29 +16829,29 @@
     </row>
     <row r="354" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>2105</v>
+        <v>2087</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>2106</v>
+        <v>2088</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>2107</v>
+        <v>2089</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>2108</v>
+        <v>2090</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>2109</v>
+        <v>2091</v>
       </c>
       <c r="F354" s="8" t="s">
-        <v>2110</v>
+        <v>2092</v>
       </c>
       <c r="G354" s="7"/>
       <c r="H354" s="7" t="s">
-        <v>2043</v>
+        <v>2149</v>
       </c>
       <c r="I354" s="8" t="s">
-        <v>2111</v>
+        <v>2093</v>
       </c>
       <c r="J354" s="9" t="s">
         <v>1740</v>
@@ -16852,29 +16859,29 @@
     </row>
     <row r="355" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>2112</v>
+        <v>2094</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>2113</v>
+        <v>2095</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>2114</v>
+        <v>2096</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>2115</v>
+        <v>2097</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>2116</v>
+        <v>2098</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>2117</v>
+        <v>2099</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7" t="s">
-        <v>2076</v>
+        <v>2142</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>2118</v>
+        <v>2100</v>
       </c>
       <c r="J355" s="9" t="s">
         <v>1740</v>
@@ -16882,59 +16889,59 @@
     </row>
     <row r="356" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>2119</v>
+        <v>2101</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>2120</v>
+        <v>2102</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>2121</v>
+        <v>2103</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>2122</v>
+        <v>2104</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>2123</v>
+        <v>2105</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>2124</v>
+        <v>2106</v>
       </c>
       <c r="G356" s="7"/>
       <c r="H356" s="7" t="s">
-        <v>1929</v>
+        <v>2151</v>
       </c>
       <c r="I356" s="8" t="s">
-        <v>2125</v>
+        <v>2107</v>
       </c>
       <c r="J356" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>2126</v>
+        <v>2108</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>2127</v>
+        <v>2109</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>2128</v>
+        <v>2110</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>2129</v>
+        <v>2111</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>2130</v>
+        <v>2112</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>2131</v>
+        <v>2113</v>
       </c>
       <c r="G357" s="7"/>
       <c r="H357" s="7" t="s">
-        <v>1785</v>
+        <v>2144</v>
       </c>
       <c r="I357" s="8" t="s">
-        <v>2132</v>
+        <v>2114</v>
       </c>
       <c r="J357" s="9" t="s">
         <v>1740</v>
@@ -16942,29 +16949,29 @@
     </row>
     <row r="358" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>2133</v>
+        <v>2115</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>2136</v>
+        <v>2118</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>2137</v>
+        <v>2119</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>2138</v>
+        <v>2120</v>
       </c>
       <c r="G358" s="7"/>
       <c r="H358" s="7" t="s">
-        <v>1929</v>
+        <v>2151</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>2139</v>
+        <v>2121</v>
       </c>
       <c r="J358" s="9" t="s">
         <v>1740</v>
@@ -16972,19 +16979,19 @@
     </row>
     <row r="359" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>2140</v>
+        <v>2122</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>2141</v>
+        <v>2123</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>2142</v>
+        <v>2124</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>2143</v>
+        <v>2125</v>
       </c>
       <c r="E359" s="8" t="s">
-        <v>2144</v>
+        <v>2126</v>
       </c>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
@@ -16992,35 +16999,35 @@
         <v>1738</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>2145</v>
+        <v>2127</v>
       </c>
       <c r="J359" s="9" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>2146</v>
+        <v>2128</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>2147</v>
+        <v>2129</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>2148</v>
+        <v>2130</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>2149</v>
+        <v>2131</v>
       </c>
       <c r="E360" s="8" t="s">
-        <v>2150</v>
+        <v>2132</v>
       </c>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
       <c r="H360" s="7" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>2151</v>
+        <v>2133</v>
       </c>
       <c r="J360" s="9" t="s">
         <v>1740</v>
@@ -17028,29 +17035,29 @@
     </row>
     <row r="361" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>2152</v>
+        <v>2134</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>2153</v>
+        <v>2135</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>2154</v>
+        <v>2136</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>2155</v>
+        <v>2137</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>2156</v>
+        <v>2138</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>2157</v>
+        <v>2139</v>
       </c>
       <c r="G361" s="7"/>
       <c r="H361" s="7" t="s">
-        <v>1770</v>
+        <v>2143</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>1740</v>

--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Projects\Java\ultimate-spring-boot-exam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8482FF97-B0F7-4803-8D74-ED7B69509B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35455618-6867-4579-9468-377ADFE5328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DD256250-6F2E-461F-A121-D4E0D938D1E6}"/>
   </bookViews>
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E3107-8F71-44D1-A758-91CC0C525FFB}">
   <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="H361" sqref="H361"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Coding Projects\Java\ultimate-spring-boot-exam\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35455618-6867-4579-9468-377ADFE5328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6CB7AA-0851-4F45-B561-263C07F1B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DD256250-6F2E-461F-A121-D4E0D938D1E6}"/>
   </bookViews>
@@ -5913,12 +5913,6 @@
     <t>C. A pointcut expression cannot have a wildcard for a method name.</t>
   </si>
   <si>
-    <t>D. A pointcut expression can include operators such as the following: &amp;&amp; (and), `</t>
-  </si>
-  <si>
-    <t>(or),!` (not).</t>
-  </si>
-  <si>
     <t>34. Which three types of objects can be returned for a JdbcTemplate query? (Choose three.)</t>
   </si>
   <si>
@@ -6516,6 +6510,13 @@
   </si>
   <si>
     <t>A, D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A pointcut expressioncan be used to select join points which have been annotated with a specific annotation</t>
+  </si>
+  <si>
+    <t>D. A pointcut expression can include operators such as the following: &amp;&amp; (and), `(or),!` (not).</t>
   </si>
 </sst>
 </file>
@@ -6938,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E3107-8F71-44D1-A758-91CC0C525FFB}">
   <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="H302" sqref="H302"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15340,7 +15341,7 @@
       </c>
       <c r="G303" s="7"/>
       <c r="H303" s="7" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I303" s="8" t="s">
         <v>1747</v>
@@ -15370,7 +15371,7 @@
       </c>
       <c r="G304" s="7"/>
       <c r="H304" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I304" s="8" t="s">
         <v>1754</v>
@@ -15428,7 +15429,7 @@
       </c>
       <c r="G306" s="7"/>
       <c r="H306" s="7" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="I306" s="8" t="s">
         <v>1768</v>
@@ -15458,7 +15459,7 @@
       </c>
       <c r="G307" s="7"/>
       <c r="H307" s="7" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="I307" s="8" t="s">
         <v>1775</v>
@@ -15488,7 +15489,7 @@
       </c>
       <c r="G308" s="7"/>
       <c r="H308" s="7" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="I308" s="8" t="s">
         <v>1782</v>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="G310" s="7"/>
       <c r="H310" s="7" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="I310" s="8" t="s">
         <v>1796</v>
@@ -15578,7 +15579,7 @@
         <v>1803</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="I311" s="8" t="s">
         <v>1804</v>
@@ -15722,7 +15723,7 @@
         <v>1835</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="I316" s="8" t="s">
         <v>1836</v>
@@ -15752,7 +15753,7 @@
       </c>
       <c r="G317" s="7"/>
       <c r="H317" s="7" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="I317" s="8" t="s">
         <v>1843</v>
@@ -15810,7 +15811,7 @@
       </c>
       <c r="G319" s="7"/>
       <c r="H319" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I319" s="8" t="s">
         <v>1856</v>
@@ -15840,7 +15841,7 @@
       </c>
       <c r="G320" s="7"/>
       <c r="H320" s="7" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="I320" s="8" t="s">
         <v>1863</v>
@@ -15898,7 +15899,7 @@
       </c>
       <c r="G322" s="7"/>
       <c r="H322" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="I322" s="8" t="s">
         <v>1876</v>
@@ -15958,7 +15959,7 @@
         <v>1890</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="I324" s="8" t="s">
         <v>1891</v>
@@ -15988,7 +15989,7 @@
       </c>
       <c r="G325" s="7"/>
       <c r="H325" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I325" s="8" t="s">
         <v>1898</v>
@@ -16018,7 +16019,7 @@
       </c>
       <c r="G326" s="7"/>
       <c r="H326" s="7" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="I326" s="8" t="s">
         <v>1905</v>
@@ -16048,7 +16049,7 @@
       </c>
       <c r="G327" s="7"/>
       <c r="H327" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I327" s="8" t="s">
         <v>1912</v>
@@ -16078,7 +16079,7 @@
       </c>
       <c r="G328" s="7"/>
       <c r="H328" s="7" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>1919</v>
@@ -16108,7 +16109,7 @@
       </c>
       <c r="G329" s="7"/>
       <c r="H329" s="7" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="I329" s="8" t="s">
         <v>1926</v>
@@ -16140,7 +16141,7 @@
         <v>1933</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="I330" s="8" t="s">
         <v>1934</v>
@@ -16172,7 +16173,7 @@
         <v>1941</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="I331" s="8" t="s">
         <v>1942</v>
@@ -16202,7 +16203,7 @@
       </c>
       <c r="G332" s="7"/>
       <c r="H332" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I332" s="8" t="s">
         <v>1949</v>
@@ -16213,7 +16214,7 @@
     </row>
     <row r="333" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>1950</v>
@@ -16253,17 +16254,17 @@
         <v>1958</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1959</v>
+        <v>2159</v>
       </c>
       <c r="F334" s="7"/>
       <c r="G334" s="7" t="s">
-        <v>1960</v>
+        <v>2158</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="J334" s="9" t="s">
         <v>1740</v>
@@ -16271,31 +16272,31 @@
     </row>
     <row r="335" spans="1:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C335" s="7" t="s">
         <v>1961</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="D335" s="7" t="s">
         <v>1962</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="E335" s="7" t="s">
         <v>1963</v>
       </c>
-      <c r="D335" s="7" t="s">
+      <c r="F335" s="7" t="s">
         <v>1964</v>
       </c>
-      <c r="E335" s="7" t="s">
+      <c r="G335" s="7" t="s">
         <v>1965</v>
       </c>
-      <c r="F335" s="7" t="s">
+      <c r="H335" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I335" s="8" t="s">
         <v>1966</v>
-      </c>
-      <c r="G335" s="7" t="s">
-        <v>1967</v>
-      </c>
-      <c r="H335" s="7" t="s">
-        <v>2157</v>
-      </c>
-      <c r="I335" s="8" t="s">
-        <v>1968</v>
       </c>
       <c r="J335" s="9" t="s">
         <v>1740</v>
@@ -16303,29 +16304,29 @@
     </row>
     <row r="336" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>1969</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="D336" s="7" t="s">
         <v>1970</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="E336" s="7" t="s">
         <v>1971</v>
       </c>
-      <c r="D336" s="7" t="s">
+      <c r="F336" s="8" t="s">
         <v>1972</v>
-      </c>
-      <c r="E336" s="7" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F336" s="8" t="s">
-        <v>1974</v>
       </c>
       <c r="G336" s="7"/>
       <c r="H336" s="7" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="I336" s="8" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>1740</v>
@@ -16333,19 +16334,19 @@
     </row>
     <row r="337" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C337" s="7" t="s">
         <v>1976</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="D337" s="7" t="s">
         <v>1977</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="E337" s="8" t="s">
         <v>1978</v>
-      </c>
-      <c r="D337" s="7" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E337" s="8" t="s">
-        <v>1980</v>
       </c>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
@@ -16353,7 +16354,7 @@
         <v>1788</v>
       </c>
       <c r="I337" s="8" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>1740</v>
@@ -16361,29 +16362,29 @@
     </row>
     <row r="338" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C338" s="7" t="s">
         <v>1982</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="D338" s="7" t="s">
         <v>1983</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="E338" s="7" t="s">
         <v>1984</v>
       </c>
-      <c r="D338" s="7" t="s">
+      <c r="F338" s="7" t="s">
         <v>1985</v>
-      </c>
-      <c r="E338" s="7" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F338" s="7" t="s">
-        <v>1987</v>
       </c>
       <c r="G338" s="7"/>
       <c r="H338" s="7" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="I338" s="8" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>1740</v>
@@ -16391,29 +16392,29 @@
     </row>
     <row r="339" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="7" t="s">
         <v>1989</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="D339" s="7" t="s">
         <v>1990</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="E339" s="7" t="s">
         <v>1991</v>
       </c>
-      <c r="D339" s="7" t="s">
+      <c r="F339" s="8" t="s">
         <v>1992</v>
-      </c>
-      <c r="E339" s="7" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F339" s="8" t="s">
-        <v>1994</v>
       </c>
       <c r="G339" s="7"/>
       <c r="H339" s="7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="I339" s="8" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>1740</v>
@@ -16421,19 +16422,19 @@
     </row>
     <row r="340" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C340" s="7" t="s">
         <v>1996</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="D340" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="E340" s="8" t="s">
         <v>1998</v>
-      </c>
-      <c r="D340" s="7" t="s">
-        <v>1999</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>2000</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
@@ -16441,7 +16442,7 @@
         <v>1760</v>
       </c>
       <c r="I340" s="8" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>1740</v>
@@ -16449,29 +16450,29 @@
     </row>
     <row r="341" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C341" s="7" t="s">
         <v>2002</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="D341" s="7" t="s">
         <v>2003</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="E341" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="D341" s="7" t="s">
+      <c r="F341" s="8" t="s">
         <v>2005</v>
-      </c>
-      <c r="E341" s="7" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F341" s="8" t="s">
-        <v>2007</v>
       </c>
       <c r="G341" s="7"/>
       <c r="H341" s="7" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I341" s="8" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>1740</v>
@@ -16479,19 +16480,19 @@
     </row>
     <row r="342" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C342" s="7" t="s">
         <v>2009</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="D342" s="7" t="s">
         <v>2010</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="E342" s="8" t="s">
         <v>2011</v>
-      </c>
-      <c r="D342" s="7" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E342" s="8" t="s">
-        <v>2013</v>
       </c>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
@@ -16499,7 +16500,7 @@
         <v>1882</v>
       </c>
       <c r="I342" s="8" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>1740</v>
@@ -16507,29 +16508,29 @@
     </row>
     <row r="343" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C343" s="7" t="s">
         <v>2015</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="D343" s="7" t="s">
         <v>2016</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="E343" s="7" t="s">
         <v>2017</v>
       </c>
-      <c r="D343" s="7" t="s">
+      <c r="F343" s="8" t="s">
         <v>2018</v>
-      </c>
-      <c r="E343" s="7" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F343" s="8" t="s">
-        <v>2020</v>
       </c>
       <c r="G343" s="7"/>
       <c r="H343" s="7" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I343" s="8" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>1740</v>
@@ -16537,29 +16538,29 @@
     </row>
     <row r="344" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C344" s="7" t="s">
         <v>2022</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="D344" s="7" t="s">
         <v>2023</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="E344" s="7" t="s">
         <v>2024</v>
       </c>
-      <c r="D344" s="7" t="s">
+      <c r="F344" s="8" t="s">
         <v>2025</v>
-      </c>
-      <c r="E344" s="7" t="s">
-        <v>2026</v>
-      </c>
-      <c r="F344" s="8" t="s">
-        <v>2027</v>
       </c>
       <c r="G344" s="7"/>
       <c r="H344" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="I344" s="8" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>1740</v>
@@ -16567,29 +16568,29 @@
     </row>
     <row r="345" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C345" s="7" t="s">
         <v>2029</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="D345" s="7" t="s">
         <v>2030</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="E345" s="7" t="s">
         <v>2031</v>
       </c>
-      <c r="D345" s="7" t="s">
+      <c r="F345" s="8" t="s">
         <v>2032</v>
-      </c>
-      <c r="E345" s="7" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F345" s="8" t="s">
-        <v>2034</v>
       </c>
       <c r="G345" s="7"/>
       <c r="H345" s="7" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="I345" s="8" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>1740</v>
@@ -16597,19 +16598,19 @@
     </row>
     <row r="346" spans="1:10" ht="180" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>2036</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="D346" s="7" t="s">
         <v>2037</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="E346" s="8" t="s">
         <v>2038</v>
-      </c>
-      <c r="D346" s="7" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E346" s="8" t="s">
-        <v>2040</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
@@ -16617,7 +16618,7 @@
         <v>1738</v>
       </c>
       <c r="I346" s="8" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="J346" s="9" t="s">
         <v>1740</v>
@@ -16625,19 +16626,19 @@
     </row>
     <row r="347" spans="1:10" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>2042</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="D347" s="7" t="s">
         <v>2043</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="E347" s="8" t="s">
         <v>2044</v>
-      </c>
-      <c r="D347" s="7" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>2046</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
@@ -16645,7 +16646,7 @@
         <v>1760</v>
       </c>
       <c r="I347" s="8" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>1740</v>
@@ -16653,19 +16654,19 @@
     </row>
     <row r="348" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B348" s="7" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D348" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="E348" s="8" t="s">
         <v>2049</v>
-      </c>
-      <c r="D348" s="7" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>2051</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
@@ -16673,7 +16674,7 @@
         <v>1882</v>
       </c>
       <c r="I348" s="8" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>1740</v>
@@ -16681,29 +16682,29 @@
     </row>
     <row r="349" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C349" s="7" t="s">
         <v>2053</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="D349" s="7" t="s">
         <v>2054</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="E349" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="F349" s="8" t="s">
         <v>2056</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>2057</v>
-      </c>
-      <c r="F349" s="8" t="s">
-        <v>2058</v>
       </c>
       <c r="G349" s="7"/>
       <c r="H349" s="7" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I349" s="8" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>1740</v>
@@ -16711,19 +16712,19 @@
     </row>
     <row r="350" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>2060</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="D350" s="7" t="s">
         <v>2061</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="E350" s="8" t="s">
         <v>2062</v>
-      </c>
-      <c r="D350" s="7" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>2064</v>
       </c>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
@@ -16731,7 +16732,7 @@
         <v>1788</v>
       </c>
       <c r="I350" s="8" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="J350" s="9" t="s">
         <v>1740</v>
@@ -16739,29 +16740,29 @@
     </row>
     <row r="351" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C351" s="7" t="s">
         <v>2066</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="D351" s="7" t="s">
         <v>2067</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="E351" s="7" t="s">
         <v>2068</v>
       </c>
-      <c r="D351" s="7" t="s">
+      <c r="F351" s="8" t="s">
         <v>2069</v>
-      </c>
-      <c r="E351" s="7" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F351" s="8" t="s">
-        <v>2071</v>
       </c>
       <c r="G351" s="7"/>
       <c r="H351" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="I351" s="8" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>1740</v>
@@ -16769,29 +16770,29 @@
     </row>
     <row r="352" spans="1:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C352" s="7" t="s">
         <v>2073</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="D352" s="7" t="s">
         <v>2074</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="E352" s="7" t="s">
         <v>2075</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="F352" s="8" t="s">
         <v>2076</v>
-      </c>
-      <c r="E352" s="7" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F352" s="8" t="s">
-        <v>2078</v>
       </c>
       <c r="G352" s="7"/>
       <c r="H352" s="7" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="I352" s="8" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>1740</v>
@@ -16799,29 +16800,29 @@
     </row>
     <row r="353" spans="1:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C353" s="7" t="s">
         <v>2080</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="D353" s="7" t="s">
         <v>2081</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="E353" s="7" t="s">
         <v>2082</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="F353" s="8" t="s">
         <v>2083</v>
-      </c>
-      <c r="E353" s="7" t="s">
-        <v>2084</v>
-      </c>
-      <c r="F353" s="8" t="s">
-        <v>2085</v>
       </c>
       <c r="G353" s="7"/>
       <c r="H353" s="7" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>1740</v>
@@ -16829,29 +16830,29 @@
     </row>
     <row r="354" spans="1:10" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>2087</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>2088</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="E354" s="7" t="s">
         <v>2089</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="F354" s="8" t="s">
         <v>2090</v>
-      </c>
-      <c r="E354" s="7" t="s">
-        <v>2091</v>
-      </c>
-      <c r="F354" s="8" t="s">
-        <v>2092</v>
       </c>
       <c r="G354" s="7"/>
       <c r="H354" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="I354" s="8" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="J354" s="9" t="s">
         <v>1740</v>
@@ -16859,29 +16860,29 @@
     </row>
     <row r="355" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C355" s="7" t="s">
         <v>2094</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="D355" s="7" t="s">
         <v>2095</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>2096</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="F355" s="8" t="s">
         <v>2097</v>
-      </c>
-      <c r="E355" s="7" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F355" s="8" t="s">
-        <v>2099</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="J355" s="9" t="s">
         <v>1740</v>
@@ -16889,29 +16890,29 @@
     </row>
     <row r="356" spans="1:10" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C356" s="7" t="s">
         <v>2101</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="D356" s="7" t="s">
         <v>2102</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="E356" s="7" t="s">
         <v>2103</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="F356" s="8" t="s">
         <v>2104</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F356" s="8" t="s">
-        <v>2106</v>
       </c>
       <c r="G356" s="7"/>
       <c r="H356" s="7" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I356" s="8" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J356" s="9" t="s">
         <v>1740</v>
@@ -16919,29 +16920,29 @@
     </row>
     <row r="357" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C357" s="7" t="s">
         <v>2108</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="D357" s="7" t="s">
         <v>2109</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="E357" s="7" t="s">
         <v>2110</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="F357" s="8" t="s">
         <v>2111</v>
-      </c>
-      <c r="E357" s="7" t="s">
-        <v>2112</v>
-      </c>
-      <c r="F357" s="8" t="s">
-        <v>2113</v>
       </c>
       <c r="G357" s="7"/>
       <c r="H357" s="7" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="I357" s="8" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="J357" s="9" t="s">
         <v>1740</v>
@@ -16949,29 +16950,29 @@
     </row>
     <row r="358" spans="1:10" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C358" s="7" t="s">
         <v>2115</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="D358" s="7" t="s">
         <v>2116</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="E358" s="7" t="s">
         <v>2117</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="F358" s="8" t="s">
         <v>2118</v>
-      </c>
-      <c r="E358" s="7" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F358" s="8" t="s">
-        <v>2120</v>
       </c>
       <c r="G358" s="7"/>
       <c r="H358" s="7" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="J358" s="9" t="s">
         <v>1740</v>
@@ -16979,19 +16980,19 @@
     </row>
     <row r="359" spans="1:10" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C359" s="7" t="s">
         <v>2122</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="D359" s="7" t="s">
         <v>2123</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="E359" s="8" t="s">
         <v>2124</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>2126</v>
       </c>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
@@ -16999,7 +17000,7 @@
         <v>1738</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="J359" s="9" t="s">
         <v>1740</v>
@@ -17007,19 +17008,19 @@
     </row>
     <row r="360" spans="1:10" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C360" s="7" t="s">
         <v>2128</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="D360" s="7" t="s">
         <v>2129</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="E360" s="8" t="s">
         <v>2130</v>
-      </c>
-      <c r="D360" s="7" t="s">
-        <v>2131</v>
-      </c>
-      <c r="E360" s="8" t="s">
-        <v>2132</v>
       </c>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
@@ -17027,7 +17028,7 @@
         <v>1882</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="J360" s="9" t="s">
         <v>1740</v>
@@ -17035,29 +17036,29 @@
     </row>
     <row r="361" spans="1:10" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C361" s="7" t="s">
         <v>2134</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="D361" s="7" t="s">
         <v>2135</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>2136</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="F361" s="8" t="s">
         <v>2137</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>2138</v>
-      </c>
-      <c r="F361" s="8" t="s">
-        <v>2139</v>
       </c>
       <c r="G361" s="7"/>
       <c r="H361" s="7" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>1740</v>
